--- a/xlsx/牛腩_intext.xlsx
+++ b/xlsx/牛腩_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5</t>
   </si>
   <si>
-    <t>麵</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_牛腩</t>
+    <t>面</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_牛腩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E9%A4%90%E5%BB%B3</t>
   </si>
   <si>
-    <t>茶餐廳</t>
+    <t>茶餐厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%89%8C%E6%AA%94</t>
   </si>
   <si>
-    <t>大牌檔</t>
+    <t>大牌档</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E6%A8%93</t>
   </si>
   <si>
-    <t>酒樓</t>
+    <t>酒楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%BC%8F%E5%BF%AB%E9%A4%90</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AC%E8%85%A9</t>
   </si>
   <si>
-    <t>豬腩</t>
+    <t>猪腩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%91%B3%E6%96%99</t>
   </si>
   <si>
-    <t>調味料</t>
+    <t>调味料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Ingredients-stub</t>
